--- a/StructureDefinition-KMEHRv58.xlsx
+++ b/StructureDefinition-KMEHRv58.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T15:29:20+00:00</t>
+    <t>2022-01-28T15:30:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRv58.xlsx
+++ b/StructureDefinition-KMEHRv58.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T15:30:41+00:00</t>
+    <t>2022-04-25T09:14:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRv58.xlsx
+++ b/StructureDefinition-KMEHRv58.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T09:14:05+00:00</t>
+    <t>2022-05-27T14:43:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRv58.xlsx
+++ b/StructureDefinition-KMEHRv58.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:43:08+00:00</t>
+    <t>2022-05-27T16:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-KMEHRv58.xlsx
+++ b/StructureDefinition-KMEHRv58.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T16:28:46+00:00</t>
+    <t>2022-05-29T07:59:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
